--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2024.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2024.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152343161087674</v>
+        <v>1.156892776489258</v>
       </c>
       <c r="B1">
-        <v>2.329281430883019</v>
+        <v>2.545237064361572</v>
       </c>
       <c r="C1">
-        <v>7.164698972490526</v>
+        <v>6.786661148071289</v>
       </c>
       <c r="D1">
-        <v>2.40030893674896</v>
+        <v>2.064767837524414</v>
       </c>
       <c r="E1">
-        <v>1.227551112416323</v>
+        <v>1.219468355178833</v>
       </c>
     </row>
   </sheetData>
